--- a/results/mp/logistic/corona/confidence/84/desired-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/desired-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="74">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,45 +40,42 @@
     <t>name</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
-    <t>avoid</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
@@ -88,130 +85,154 @@
     <t>no</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>free</t>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>positive</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>thank</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>join</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>won</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
-    <t>relief</t>
+    <t>friends</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
     <t>save</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>gt</t>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>ready</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>care</t>
+    <t>safety</t>
   </si>
   <si>
     <t>giving</t>
   </si>
   <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>share</t>
   </si>
   <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>alert</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>sure</t>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>and</t>
   </si>
   <si>
     <t>.</t>
@@ -572,7 +593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q44"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -580,10 +601,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -641,13 +662,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.839041095890411</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>245</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>245</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -659,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -683,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -691,13 +712,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8333333333333334</v>
+        <v>0.8378378378378378</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -709,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.95</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -733,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -741,13 +762,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7647058823529411</v>
+        <v>0.8287671232876712</v>
       </c>
       <c r="C5">
-        <v>26</v>
+        <v>242</v>
       </c>
       <c r="D5">
-        <v>26</v>
+        <v>242</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -759,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K5">
-        <v>0.9230769230769231</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L5">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="M5">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -783,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -791,13 +812,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7586206896551724</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -809,19 +830,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6">
-        <v>0.9166666666666666</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L6">
-        <v>110</v>
+        <v>24</v>
       </c>
       <c r="M6">
-        <v>110</v>
+        <v>24</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -833,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -841,13 +862,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7567567567567568</v>
+        <v>0.8</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -859,19 +880,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K7">
-        <v>0.9166666666666666</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L7">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M7">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -891,13 +912,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7368421052631579</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C8">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D8">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -909,19 +930,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K8">
-        <v>0.9090909090909091</v>
+        <v>0.9014084507042254</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -933,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -941,13 +962,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7307692307692307</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C9">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -959,19 +980,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K9">
-        <v>0.8873239436619719</v>
+        <v>0.8962264150943396</v>
       </c>
       <c r="L9">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="M9">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -983,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -991,13 +1012,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6388888888888888</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C10">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1009,19 +1030,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K10">
-        <v>0.8867924528301887</v>
+        <v>0.8955613577023499</v>
       </c>
       <c r="L10">
-        <v>94</v>
+        <v>343</v>
       </c>
       <c r="M10">
-        <v>94</v>
+        <v>343</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1033,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1041,13 +1062,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6078431372549019</v>
+        <v>0.582010582010582</v>
       </c>
       <c r="C11">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="D11">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1059,19 +1080,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K11">
-        <v>0.8839285714285714</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L11">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="M11">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1083,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1091,13 +1112,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5714285714285714</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="C12">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="D12">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1109,19 +1130,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K12">
-        <v>0.8825065274151436</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L12">
-        <v>338</v>
+        <v>99</v>
       </c>
       <c r="M12">
-        <v>338</v>
+        <v>99</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1133,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1141,13 +1162,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5077519379844961</v>
+        <v>0.5484496124031008</v>
       </c>
       <c r="C13">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="D13">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1159,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K13">
-        <v>0.8620689655172413</v>
+        <v>0.8837209302325582</v>
       </c>
       <c r="L13">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="M13">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1183,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1191,13 +1212,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4406779661016949</v>
+        <v>0.4745762711864407</v>
       </c>
       <c r="C14">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D14">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1209,19 +1230,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K14">
-        <v>0.8611111111111112</v>
+        <v>0.875</v>
       </c>
       <c r="L14">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="M14">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1233,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1241,13 +1262,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4363636363636363</v>
+        <v>0.36</v>
       </c>
       <c r="C15">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D15">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1259,19 +1280,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K15">
-        <v>0.85625</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="L15">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="M15">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1283,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1291,13 +1312,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3066666666666666</v>
+        <v>0.302013422818792</v>
       </c>
       <c r="C16">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D16">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1309,19 +1330,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K16">
-        <v>0.851063829787234</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L16">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="M16">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1333,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1341,13 +1362,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2953020134228188</v>
+        <v>0.2194444444444444</v>
       </c>
       <c r="C17">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D17">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1359,19 +1380,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>105</v>
+        <v>281</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K17">
-        <v>0.84375</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L17">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="M17">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1383,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1391,13 +1412,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.2055555555555555</v>
+        <v>0.07539682539682539</v>
       </c>
       <c r="C18">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="D18">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1409,45 +1430,69 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>286</v>
+        <v>233</v>
       </c>
       <c r="J18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K18">
+        <v>0.8515625</v>
+      </c>
+      <c r="L18">
+        <v>109</v>
+      </c>
+      <c r="M18">
+        <v>109</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>0.009278785322648671</v>
+      </c>
+      <c r="C19">
+        <v>22</v>
+      </c>
+      <c r="D19">
+        <v>30</v>
+      </c>
+      <c r="E19">
+        <v>0.27</v>
+      </c>
+      <c r="F19">
+        <v>0.73</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>2349</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19">
+        <v>0.851063829787234</v>
+      </c>
+      <c r="L19">
         <v>40</v>
       </c>
-      <c r="K18">
-        <v>0.8414634146341463</v>
-      </c>
-      <c r="L18">
-        <v>69</v>
-      </c>
-      <c r="M18">
-        <v>69</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="J19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K19">
-        <v>0.8372093023255814</v>
-      </c>
-      <c r="L19">
-        <v>36</v>
-      </c>
       <c r="M19">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1463,17 +1508,41 @@
       </c>
     </row>
     <row r="20" spans="1:17">
+      <c r="A20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>0.003697936940443753</v>
+      </c>
+      <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>46</v>
+      </c>
+      <c r="E20">
+        <v>0.59</v>
+      </c>
+      <c r="F20">
+        <v>0.41</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>5119</v>
+      </c>
       <c r="J20" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K20">
-        <v>0.7948717948717948</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L20">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="M20">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1485,21 +1554,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="J21" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K21">
-        <v>0.7916666666666666</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L21">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="M21">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1511,21 +1580,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K22">
-        <v>0.7857142857142857</v>
+        <v>0.8125</v>
       </c>
       <c r="L22">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="M22">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1537,21 +1606,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K23">
-        <v>0.7619047619047619</v>
+        <v>0.8</v>
       </c>
       <c r="L23">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M23">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1563,21 +1632,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K24">
-        <v>0.76</v>
+        <v>0.8</v>
       </c>
       <c r="L24">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M24">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1589,21 +1658,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K25">
-        <v>0.7558823529411764</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="L25">
-        <v>257</v>
+        <v>31</v>
       </c>
       <c r="M25">
-        <v>257</v>
+        <v>31</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1615,21 +1684,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K26">
-        <v>0.75</v>
+        <v>0.7936507936507936</v>
       </c>
       <c r="L26">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="M26">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1641,21 +1710,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K27">
-        <v>0.7428571428571429</v>
+        <v>0.75</v>
       </c>
       <c r="L27">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M27">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1667,21 +1736,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K28">
-        <v>0.7254237288135593</v>
+        <v>0.7441176470588236</v>
       </c>
       <c r="L28">
-        <v>214</v>
+        <v>253</v>
       </c>
       <c r="M28">
-        <v>214</v>
+        <v>253</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1693,21 +1762,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K29">
-        <v>0.7037037037037037</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="L29">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M29">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1719,21 +1788,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K30">
-        <v>0.6820083682008368</v>
+        <v>0.7322175732217573</v>
       </c>
       <c r="L30">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="M30">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1745,21 +1814,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K31">
-        <v>0.675</v>
+        <v>0.7108843537414966</v>
       </c>
       <c r="L31">
-        <v>27</v>
+        <v>209</v>
       </c>
       <c r="M31">
-        <v>27</v>
+        <v>210</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1768,24 +1837,24 @@
         <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
-        <v>13</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K32">
-        <v>0.648936170212766</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L32">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="M32">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1797,21 +1866,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K33">
-        <v>0.6461538461538462</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="L33">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M33">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1823,21 +1892,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K34">
-        <v>0.6404494382022472</v>
+        <v>0.6853932584269663</v>
       </c>
       <c r="L34">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="M34">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1849,21 +1918,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K35">
-        <v>0.6363636363636364</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L35">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M35">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1875,21 +1944,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K36">
-        <v>0.6142857142857143</v>
+        <v>0.6702127659574468</v>
       </c>
       <c r="L36">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="M36">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1901,21 +1970,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K37">
-        <v>0.6129032258064516</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="L37">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="M37">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1927,21 +1996,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K38">
-        <v>0.6078431372549019</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L38">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="M38">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1953,21 +2022,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K39">
-        <v>0.5238095238095238</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="L39">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M39">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1979,21 +2048,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K40">
-        <v>0.4931506849315068</v>
+        <v>0.6</v>
       </c>
       <c r="L40">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="M40">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2005,21 +2074,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K41">
-        <v>0.4871794871794872</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L41">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M41">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2031,47 +2100,47 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K42">
-        <v>0.4444444444444444</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L42">
+        <v>22</v>
+      </c>
+      <c r="M42">
+        <v>22</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
         <v>20</v>
-      </c>
-      <c r="M42">
-        <v>20</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>25</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K43">
-        <v>0.390625</v>
+        <v>0.4743589743589743</v>
       </c>
       <c r="L43">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="M43">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2083,33 +2152,189 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K44">
-        <v>0.004613841524573721</v>
+        <v>0.4246575342465753</v>
       </c>
       <c r="L44">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M44">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N44">
-        <v>0.68</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>4962</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K45">
+        <v>0.3559322033898305</v>
+      </c>
+      <c r="L45">
+        <v>21</v>
+      </c>
+      <c r="M45">
+        <v>21</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K46">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L46">
+        <v>21</v>
+      </c>
+      <c r="M46">
+        <v>21</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K47">
+        <v>0.0225</v>
+      </c>
+      <c r="L47">
+        <v>27</v>
+      </c>
+      <c r="M47">
+        <v>27</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K48">
+        <v>0.008988764044943821</v>
+      </c>
+      <c r="L48">
+        <v>24</v>
+      </c>
+      <c r="M48">
+        <v>27</v>
+      </c>
+      <c r="N48">
+        <v>0.89</v>
+      </c>
+      <c r="O48">
+        <v>0.11</v>
+      </c>
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K49">
+        <v>0.005417335473515248</v>
+      </c>
+      <c r="L49">
+        <v>27</v>
+      </c>
+      <c r="M49">
+        <v>39</v>
+      </c>
+      <c r="N49">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="O49">
+        <v>0.3100000000000001</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>4957</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K50">
+        <v>0.005246793626117373</v>
+      </c>
+      <c r="L50">
+        <v>27</v>
+      </c>
+      <c r="M50">
+        <v>46</v>
+      </c>
+      <c r="N50">
+        <v>0.59</v>
+      </c>
+      <c r="O50">
+        <v>0.41</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>5119</v>
       </c>
     </row>
   </sheetData>
